--- a/data/raw/dataset_reduced.xlsx
+++ b/data/raw/dataset_reduced.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$R$1:$R$583</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$1:$J$583</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1665,9 +1665,9 @@
   <dimension ref="A1:T583"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R$1:R$1048576"/>
+      <selection pane="bottomLeft" activeCell="R362" sqref="R362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
@@ -23815,7 +23815,7 @@
         <v>0.65</v>
       </c>
       <c r="Q357" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R357" s="9">
         <v>638</v>
@@ -23877,7 +23877,7 @@
         <v>0.65</v>
       </c>
       <c r="Q358" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R358" s="9">
         <v>515</v>
@@ -37840,6 +37840,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="J1:J583" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
